--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3641642.017238992</v>
+        <v>3643121.969497233</v>
       </c>
     </row>
     <row r="7">
@@ -674,11 +674,11 @@
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="T3" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>13.35464426286299</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>15.16194852731947</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>13.35464426286299</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.08376095934436</v>
+        <v>14.08376095934437</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>12.76358316583656</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="V5" t="n">
-        <v>38.28722736931466</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="W5" t="n">
-        <v>38.28722736931466</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>12.76358316583649</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.28722736931466</v>
+        <v>38.28722736931459</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>33.72338986689229</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>33.72338986689235</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>38.28722736931466</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="T6" t="n">
-        <v>38.28722736931466</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>38.28722736931466</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="D7" t="n">
-        <v>38.28722736931466</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>38.28722736931466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.28722736931466</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>33.72338986689236</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>33.72338986689228</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>239.807948141505</v>
+        <v>70.80913467549958</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>79.80989588321036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41.66572940970586</v>
       </c>
       <c r="F9" t="n">
-        <v>142.5037850342328</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>118.4867120133727</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="W10" t="n">
         <v>239.807948141505</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>176.8391591709119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C11" t="n">
-        <v>333.6626894187936</v>
+        <v>333.662689418794</v>
       </c>
       <c r="D11" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E11" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F11" t="n">
         <v>375.2658433894975</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T11" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V11" t="n">
         <v>296.142056117921</v>
@@ -1436,7 +1436,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.6277363038391</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D13" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E13" t="n">
-        <v>114.8237602943565</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F13" t="n">
         <v>113.8108456707173</v>
@@ -1546,7 +1546,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I13" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S13" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T13" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U13" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V13" t="n">
         <v>220.5274409716141</v>
@@ -1594,7 +1594,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C14" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D14" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E14" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F14" t="n">
         <v>375.2658433894975</v>
@@ -1658,10 +1658,10 @@
         <v>60.32014642295175</v>
       </c>
       <c r="T14" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U14" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V14" t="n">
         <v>296.142056117921</v>
@@ -1673,7 +1673,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D16" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E16" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F16" t="n">
         <v>113.8108456707173</v>
@@ -1783,7 +1783,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I16" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S16" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T16" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U16" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V16" t="n">
         <v>220.5274409716141</v>
@@ -1831,7 +1831,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684687</v>
       </c>
       <c r="E17" t="n">
         <v>350.3201677200478</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -2056,7 +2056,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612669</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038391</v>
       </c>
     </row>
     <row r="24">
@@ -2530,7 +2530,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612669</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2570,10 +2570,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H26" t="n">
-        <v>286.8518683469699</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>91.93034877516529</v>
       </c>
       <c r="T26" t="n">
-        <v>200.6028050067863</v>
+        <v>200.6028050067862</v>
       </c>
       <c r="U26" t="n">
         <v>250.934586416783</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>183.8488525946973</v>
       </c>
       <c r="T28" t="n">
-        <v>218.097472392356</v>
+        <v>132.0864417444708</v>
       </c>
       <c r="U28" t="n">
         <v>286.1933087134791</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>205.3499106963493</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.7508695214796</v>
+        <v>376.7508695214795</v>
       </c>
       <c r="C29" t="n">
-        <v>359.2899196290066</v>
+        <v>359.2899196290065</v>
       </c>
       <c r="D29" t="n">
-        <v>348.700069478682</v>
+        <v>348.7000694786819</v>
       </c>
       <c r="E29" t="n">
-        <v>375.9473979302608</v>
+        <v>375.9473979302607</v>
       </c>
       <c r="F29" t="n">
-        <v>400.8930735997105</v>
+        <v>400.8930735997104</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1814342349628</v>
+        <v>404.1814342349626</v>
       </c>
       <c r="H29" t="n">
-        <v>280.8688962049689</v>
+        <v>280.8688962049688</v>
       </c>
       <c r="I29" t="n">
-        <v>6.397406224054007</v>
+        <v>6.397406224053886</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.94737663316442</v>
+        <v>85.94737663316464</v>
       </c>
       <c r="T29" t="n">
-        <v>194.6198328647854</v>
+        <v>194.6198328647857</v>
       </c>
       <c r="U29" t="n">
-        <v>244.9516142747804</v>
+        <v>244.9516142747817</v>
       </c>
       <c r="V29" t="n">
-        <v>321.7692863281339</v>
+        <v>321.7692863281338</v>
       </c>
       <c r="W29" t="n">
-        <v>343.2579965754121</v>
+        <v>343.2579965754119</v>
       </c>
       <c r="X29" t="n">
-        <v>363.7481285364681</v>
+        <v>363.748128536468</v>
       </c>
       <c r="Y29" t="n">
-        <v>380.2549665140526</v>
+        <v>380.2549665140525</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>173.8490080399363</v>
       </c>
       <c r="C31" t="n">
-        <v>161.2638489566269</v>
+        <v>161.2638489566268</v>
       </c>
       <c r="D31" t="n">
-        <v>142.6325008762114</v>
+        <v>142.6325008762113</v>
       </c>
       <c r="E31" t="n">
-        <v>140.4509905045682</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>139.4380758809303</v>
+        <v>139.4380758809302</v>
       </c>
       <c r="G31" t="n">
-        <v>159.7031287612412</v>
+        <v>159.7031287612411</v>
       </c>
       <c r="H31" t="n">
-        <v>135.7517355545127</v>
+        <v>135.7517355545126</v>
       </c>
       <c r="I31" t="n">
-        <v>80.15352160474313</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.67470251242867</v>
       </c>
       <c r="S31" t="n">
-        <v>177.8658804526963</v>
+        <v>177.8658804526962</v>
       </c>
       <c r="T31" t="n">
-        <v>212.114500250355</v>
+        <v>212.1145002503549</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>156.9150483100241</v>
+        <v>246.154671181827</v>
       </c>
       <c r="W31" t="n">
-        <v>280.54002619459</v>
+        <v>280.5400261945899</v>
       </c>
       <c r="X31" t="n">
-        <v>219.7266832470362</v>
+        <v>109.5678619321822</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.6016812100939</v>
+        <v>212.6016812100937</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645704</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453045</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716157</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
         <v>254.9127959843771</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3329,7 +3329,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262555</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V43" t="n">
         <v>220.5274409716141</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3983,13 @@
         <v>329.05581141047</v>
       </c>
       <c r="E44" t="n">
-        <v>356.3031398620488</v>
+        <v>356.3031398620489</v>
       </c>
       <c r="F44" t="n">
         <v>381.2488155314985</v>
       </c>
       <c r="G44" t="n">
-        <v>384.5371761667507</v>
+        <v>384.5371761667508</v>
       </c>
       <c r="H44" t="n">
         <v>261.2246381367569</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.30311856495268</v>
+        <v>66.30311856495278</v>
       </c>
       <c r="T44" t="n">
-        <v>91.21396480856052</v>
+        <v>174.9755747965734</v>
       </c>
       <c r="U44" t="n">
-        <v>225.3073562065698</v>
+        <v>225.3073562065699</v>
       </c>
       <c r="V44" t="n">
-        <v>302.1250282599219</v>
+        <v>302.125028259922</v>
       </c>
       <c r="W44" t="n">
-        <v>323.6137385072</v>
+        <v>239.8521285191871</v>
       </c>
       <c r="X44" t="n">
-        <v>344.103870468256</v>
+        <v>344.1038704682561</v>
       </c>
       <c r="Y44" t="n">
-        <v>360.6107084458406</v>
+        <v>360.6107084458407</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.2047499717243</v>
+        <v>154.2047499717244</v>
       </c>
       <c r="C46" t="n">
-        <v>141.6195908884148</v>
+        <v>141.6195908884149</v>
       </c>
       <c r="D46" t="n">
-        <v>122.9882428079993</v>
+        <v>122.9882428079995</v>
       </c>
       <c r="E46" t="n">
-        <v>120.8067324363562</v>
+        <v>120.8067324363563</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>119.7938178127183</v>
       </c>
       <c r="G46" t="n">
-        <v>140.0588706930291</v>
+        <v>140.0588706930292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.1074774863006</v>
+        <v>116.1074774863008</v>
       </c>
       <c r="I46" t="n">
-        <v>60.50926353653105</v>
+        <v>60.50926353653115</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.0304444442167</v>
+        <v>48.0304444442168</v>
       </c>
       <c r="S46" t="n">
-        <v>158.2216223844842</v>
+        <v>158.2216223844844</v>
       </c>
       <c r="T46" t="n">
-        <v>192.470242182143</v>
+        <v>192.4702421821431</v>
       </c>
       <c r="U46" t="n">
-        <v>260.5660785032661</v>
+        <v>260.5660785032662</v>
       </c>
       <c r="V46" t="n">
-        <v>226.510413113615</v>
+        <v>226.5104131136151</v>
       </c>
       <c r="W46" t="n">
-        <v>260.895768126378</v>
+        <v>260.8957681263781</v>
       </c>
       <c r="X46" t="n">
-        <v>177.2374007485265</v>
+        <v>57.44358293580736</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.9574231418818</v>
+        <v>192.9574231418819</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4322,7 @@
         <v>16.52805540473048</v>
       </c>
       <c r="H2" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="I2" t="n">
         <v>1.212955882185558</v>
@@ -4331,16 +4331,16 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K2" t="n">
-        <v>15.61680698313905</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="L2" t="n">
-        <v>15.61680698313905</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M2" t="n">
-        <v>30.62713602518533</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="N2" t="n">
-        <v>30.62713602518533</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="O2" t="n">
         <v>45.6374650672316</v>
@@ -4361,13 +4361,13 @@
         <v>60.64779410927788</v>
       </c>
       <c r="U2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X2" t="n">
         <v>45.33269458673296</v>
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.212955882185558</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="C3" t="n">
-        <v>1.212955882185558</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="D3" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="E3" t="n">
         <v>1.212955882185558</v>
@@ -4410,19 +4410,19 @@
         <v>7.519576199182469</v>
       </c>
       <c r="K3" t="n">
-        <v>15.61680698313905</v>
+        <v>7.519576199182469</v>
       </c>
       <c r="L3" t="n">
-        <v>30.62713602518533</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="M3" t="n">
-        <v>30.62713602518533</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="N3" t="n">
-        <v>45.6374650672316</v>
+        <v>37.54023428327503</v>
       </c>
       <c r="O3" t="n">
-        <v>45.6374650672316</v>
+        <v>52.55056332532131</v>
       </c>
       <c r="P3" t="n">
         <v>60.64779410927788</v>
@@ -4434,25 +4434,25 @@
         <v>60.64779410927788</v>
       </c>
       <c r="S3" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="T3" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="U3" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="V3" t="n">
         <v>45.33269458673296</v>
       </c>
-      <c r="T3" t="n">
-        <v>30.01759506418804</v>
-      </c>
-      <c r="U3" t="n">
-        <v>30.01759506418804</v>
-      </c>
-      <c r="V3" t="n">
-        <v>16.52805540473048</v>
-      </c>
       <c r="W3" t="n">
-        <v>16.52805540473048</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X3" t="n">
-        <v>16.52805540473048</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.212955882185558</v>
+        <v>31.8431549272754</v>
       </c>
     </row>
     <row r="4">
@@ -4513,25 +4513,25 @@
         <v>60.64779410927788</v>
       </c>
       <c r="S4" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="T4" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="U4" t="n">
         <v>45.33269458673296</v>
       </c>
-      <c r="T4" t="n">
-        <v>45.33269458673296</v>
-      </c>
-      <c r="U4" t="n">
-        <v>30.01759506418804</v>
-      </c>
       <c r="V4" t="n">
-        <v>16.52805540473048</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="W4" t="n">
         <v>16.52805540473048</v>
       </c>
       <c r="X4" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="5">
@@ -4553,61 +4553,61 @@
         <v>24.23450010980356</v>
       </c>
       <c r="F5" t="n">
-        <v>17.28899936060009</v>
+        <v>17.28899936060008</v>
       </c>
       <c r="G5" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="H5" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="I5" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="J5" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="K5" t="n">
-        <v>40.96733328516669</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="L5" t="n">
-        <v>78.87168838078821</v>
+        <v>40.96733328516661</v>
       </c>
       <c r="M5" t="n">
-        <v>116.7760434764097</v>
+        <v>78.87168838078804</v>
       </c>
       <c r="N5" t="n">
-        <v>153.1489094772587</v>
+        <v>78.87168838078804</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1489094772587</v>
+        <v>116.7760434764095</v>
       </c>
       <c r="P5" t="n">
-        <v>153.1489094772587</v>
+        <v>116.7760434764095</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.1489094772587</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="R5" t="n">
-        <v>153.1489094772587</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="S5" t="n">
-        <v>153.1489094772587</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="T5" t="n">
-        <v>153.1489094772587</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="U5" t="n">
-        <v>140.2564012289389</v>
+        <v>114.4749424375466</v>
       </c>
       <c r="V5" t="n">
-        <v>101.5824341892271</v>
+        <v>75.80097539783495</v>
       </c>
       <c r="W5" t="n">
-        <v>62.90846714951535</v>
+        <v>75.80097539783495</v>
       </c>
       <c r="X5" t="n">
-        <v>62.90846714951535</v>
+        <v>62.90846714951526</v>
       </c>
       <c r="Y5" t="n">
         <v>24.23450010980356</v>
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.12700835812331</v>
+        <v>75.80097539783495</v>
       </c>
       <c r="C6" t="n">
-        <v>37.12700835812331</v>
+        <v>37.12700835812324</v>
       </c>
       <c r="D6" t="n">
-        <v>37.12700835812331</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="E6" t="n">
-        <v>37.12700835812331</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="F6" t="n">
-        <v>37.12700835812331</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="G6" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="H6" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="I6" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="J6" t="n">
-        <v>40.96733328516669</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="K6" t="n">
-        <v>40.96733328516669</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="L6" t="n">
-        <v>43.9948891668209</v>
+        <v>26.9805596934394</v>
       </c>
       <c r="M6" t="n">
-        <v>81.89924426244241</v>
+        <v>64.88491478906084</v>
       </c>
       <c r="N6" t="n">
-        <v>119.8035993580639</v>
+        <v>102.7892698846823</v>
       </c>
       <c r="O6" t="n">
-        <v>132.2588838550186</v>
+        <v>115.2445543816369</v>
       </c>
       <c r="P6" t="n">
-        <v>153.1489094772587</v>
+        <v>115.2445543816369</v>
       </c>
       <c r="Q6" t="n">
-        <v>153.1489094772587</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="R6" t="n">
-        <v>114.4749424375469</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="S6" t="n">
-        <v>114.4749424375469</v>
+        <v>114.4749424375466</v>
       </c>
       <c r="T6" t="n">
-        <v>75.80097539783509</v>
+        <v>114.4749424375466</v>
       </c>
       <c r="U6" t="n">
-        <v>75.80097539783509</v>
+        <v>114.4749424375466</v>
       </c>
       <c r="V6" t="n">
-        <v>75.80097539783509</v>
+        <v>114.4749424375466</v>
       </c>
       <c r="W6" t="n">
-        <v>37.12700835812331</v>
+        <v>114.4749424375466</v>
       </c>
       <c r="X6" t="n">
-        <v>37.12700835812331</v>
+        <v>75.80097539783495</v>
       </c>
       <c r="Y6" t="n">
-        <v>37.12700835812331</v>
+        <v>75.80097539783495</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.41091226896873</v>
+        <v>80.41091226896859</v>
       </c>
       <c r="C7" t="n">
-        <v>80.41091226896873</v>
+        <v>41.73694522925688</v>
       </c>
       <c r="D7" t="n">
-        <v>41.73694522925695</v>
+        <v>41.73694522925688</v>
       </c>
       <c r="E7" t="n">
-        <v>41.73694522925695</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="F7" t="n">
-        <v>41.73694522925695</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="G7" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="H7" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="I7" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="J7" t="n">
-        <v>3.062978189545173</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="K7" t="n">
-        <v>40.96733328516669</v>
+        <v>3.062978189545167</v>
       </c>
       <c r="L7" t="n">
-        <v>78.87168838078821</v>
+        <v>39.43584419039402</v>
       </c>
       <c r="M7" t="n">
-        <v>116.7760434764097</v>
+        <v>77.34019928601546</v>
       </c>
       <c r="N7" t="n">
-        <v>116.7760434764097</v>
+        <v>115.2445543816369</v>
       </c>
       <c r="O7" t="n">
-        <v>116.7760434764097</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="P7" t="n">
-        <v>153.1489094772587</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.4749424375469</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="R7" t="n">
-        <v>80.41091226896873</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="S7" t="n">
-        <v>80.41091226896873</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="T7" t="n">
-        <v>80.41091226896873</v>
+        <v>153.1489094772583</v>
       </c>
       <c r="U7" t="n">
-        <v>80.41091226896873</v>
+        <v>119.0848793086803</v>
       </c>
       <c r="V7" t="n">
-        <v>80.41091226896873</v>
+        <v>80.41091226896859</v>
       </c>
       <c r="W7" t="n">
-        <v>80.41091226896873</v>
+        <v>80.41091226896859</v>
       </c>
       <c r="X7" t="n">
-        <v>80.41091226896873</v>
+        <v>80.41091226896859</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.41091226896873</v>
+        <v>80.41091226896859</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394.155234822363</v>
+        <v>103.7563920345895</v>
       </c>
       <c r="C8" t="n">
-        <v>394.155234822363</v>
+        <v>103.7563920345895</v>
       </c>
       <c r="D8" t="n">
-        <v>394.155234822363</v>
+        <v>103.7563920345895</v>
       </c>
       <c r="E8" t="n">
-        <v>394.155234822363</v>
+        <v>103.7563920345895</v>
       </c>
       <c r="F8" t="n">
-        <v>151.9249841743781</v>
+        <v>32.23201357448889</v>
       </c>
       <c r="G8" t="n">
-        <v>138.8776064512096</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H8" t="n">
-        <v>138.8776064512096</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I8" t="n">
         <v>19.1846358513204</v>
@@ -4808,46 +4808,46 @@
         <v>122.982040419296</v>
       </c>
       <c r="L8" t="n">
-        <v>262.3106962605485</v>
+        <v>262.3106962605494</v>
       </c>
       <c r="M8" t="n">
-        <v>449.0101090859561</v>
+        <v>449.0101090859569</v>
       </c>
       <c r="N8" t="n">
-        <v>643.3443219779383</v>
+        <v>643.3443219779391</v>
       </c>
       <c r="O8" t="n">
-        <v>813.5133472948978</v>
+        <v>813.5133472948986</v>
       </c>
       <c r="P8" t="n">
-        <v>924.2476725444249</v>
+        <v>924.2476725444251</v>
       </c>
       <c r="Q8" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R8" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S8" t="n">
-        <v>959.2317925660199</v>
+        <v>803.0167550628482</v>
       </c>
       <c r="T8" t="n">
-        <v>959.2317925660199</v>
+        <v>588.2168933305593</v>
       </c>
       <c r="U8" t="n">
-        <v>959.2317925660199</v>
+        <v>588.2168933305593</v>
       </c>
       <c r="V8" t="n">
-        <v>959.2317925660199</v>
+        <v>345.9866426825744</v>
       </c>
       <c r="W8" t="n">
-        <v>959.2317925660199</v>
+        <v>345.9866426825744</v>
       </c>
       <c r="X8" t="n">
-        <v>717.0015419180351</v>
+        <v>345.9866426825744</v>
       </c>
       <c r="Y8" t="n">
-        <v>636.3854854703478</v>
+        <v>345.9866426825744</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>346.4741077080777</v>
+        <v>253.7106461974582</v>
       </c>
       <c r="C9" t="n">
-        <v>346.4741077080777</v>
+        <v>253.7106461974582</v>
       </c>
       <c r="D9" t="n">
-        <v>346.4741077080777</v>
+        <v>253.7106461974582</v>
       </c>
       <c r="E9" t="n">
-        <v>346.4741077080777</v>
+        <v>211.6240508341189</v>
       </c>
       <c r="F9" t="n">
-        <v>202.530890501782</v>
+        <v>65.08949286100392</v>
       </c>
       <c r="G9" t="n">
         <v>65.08949286100392</v>
@@ -4884,49 +4884,49 @@
         <v>19.1846358513204</v>
       </c>
       <c r="K9" t="n">
-        <v>86.7924555146774</v>
+        <v>152.9092351450204</v>
       </c>
       <c r="L9" t="n">
-        <v>224.0220535303713</v>
+        <v>290.1388331607143</v>
       </c>
       <c r="M9" t="n">
-        <v>403.519389884976</v>
+        <v>469.636169515319</v>
       </c>
       <c r="N9" t="n">
-        <v>602.1761315376407</v>
+        <v>668.2929111679837</v>
       </c>
       <c r="O9" t="n">
-        <v>761.6884442064013</v>
+        <v>827.8052238367443</v>
       </c>
       <c r="P9" t="n">
-        <v>936.4948513640429</v>
+        <v>936.4948513640431</v>
       </c>
       <c r="Q9" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R9" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S9" t="n">
-        <v>809.7650034286546</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="T9" t="n">
-        <v>809.7650034286546</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="U9" t="n">
-        <v>581.6262159398204</v>
+        <v>731.0930050771858</v>
       </c>
       <c r="V9" t="n">
-        <v>346.4741077080777</v>
+        <v>495.9408968454431</v>
       </c>
       <c r="W9" t="n">
-        <v>346.4741077080777</v>
+        <v>253.7106461974582</v>
       </c>
       <c r="X9" t="n">
-        <v>346.4741077080777</v>
+        <v>253.7106461974582</v>
       </c>
       <c r="Y9" t="n">
-        <v>346.4741077080777</v>
+        <v>253.7106461974582</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>356.7276637838439</v>
+        <v>293.1228264398105</v>
       </c>
       <c r="C10" t="n">
-        <v>187.791480855937</v>
+        <v>293.1228264398105</v>
       </c>
       <c r="D10" t="n">
-        <v>187.791480855937</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="E10" t="n">
-        <v>187.791480855937</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="F10" t="n">
-        <v>187.791480855937</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="G10" t="n">
-        <v>19.1846358513204</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="H10" t="n">
         <v>19.1846358513204</v>
@@ -4963,49 +4963,49 @@
         <v>19.1846358513204</v>
       </c>
       <c r="K10" t="n">
-        <v>60.3450407022849</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L10" t="n">
-        <v>245.1780356031032</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M10" t="n">
-        <v>450.4476363223412</v>
+        <v>450.4476363223414</v>
       </c>
       <c r="N10" t="n">
-        <v>656.2710011584454</v>
+        <v>656.2710011584456</v>
       </c>
       <c r="O10" t="n">
-        <v>830.3658965470443</v>
+        <v>830.3658965470445</v>
       </c>
       <c r="P10" t="n">
-        <v>955.8134731456599</v>
+        <v>955.8134731456602</v>
       </c>
       <c r="Q10" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R10" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S10" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="T10" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="U10" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="V10" t="n">
-        <v>959.2317925660199</v>
+        <v>717.0015419180352</v>
       </c>
       <c r="W10" t="n">
-        <v>717.0015419180351</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="X10" t="n">
-        <v>717.0015419180351</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="Y10" t="n">
-        <v>538.3761286140837</v>
+        <v>474.7712912700503</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G11" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H11" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K11" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L11" t="n">
         <v>1336.032957050963</v>
@@ -5051,7 +5051,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O11" t="n">
         <v>3311.067850233288</v>
@@ -5060,31 +5060,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S11" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T11" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U11" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V11" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W11" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X11" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y11" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J12" t="n">
-        <v>147.5315942576214</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K12" t="n">
-        <v>450.5726436074859</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L12" t="n">
-        <v>904.3712732018133</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M12" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="O12" t="n">
-        <v>1959.694692760353</v>
+        <v>2028.720609486318</v>
       </c>
       <c r="P12" t="n">
-        <v>2346.796248312508</v>
+        <v>2415.822165038473</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R12" t="n">
         <v>2555.644190323788</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8557341477731</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D13" t="n">
-        <v>617.668592060906</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J13" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K13" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L13" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902791</v>
       </c>
       <c r="M13" t="n">
         <v>1285.552079040894</v>
@@ -5218,19 +5218,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q13" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R13" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S13" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T13" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U13" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V13" t="n">
         <v>1664.992195357084</v>
@@ -5239,10 +5239,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y13" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>725.1782574796674</v>
       </c>
       <c r="G14" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5288,37 +5288,37 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S14" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T14" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U14" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V14" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W14" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X14" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y14" t="n">
         <v>2476.13298385146</v>
@@ -5352,25 +5352,25 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J15" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334505</v>
+        <v>425.8076655769656</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277778</v>
+        <v>879.606295171293</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.315654538067</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.626315333738</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O15" t="n">
-        <v>2322.031270281988</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P15" t="n">
         <v>2322.031270281988</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C16" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D16" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F16" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J16" t="n">
         <v>185.1742787042785</v>
@@ -5440,7 +5440,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L16" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M16" t="n">
         <v>1285.552079040893</v>
@@ -5449,10 +5449,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O16" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P16" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q16" t="n">
         <v>2529.521427597205</v>
@@ -5464,19 +5464,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U16" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y16" t="n">
         <v>1022.581387254981</v>
@@ -5501,49 +5501,49 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
         <v>3795.851627400162</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2634.934250816502</v>
+        <v>2634.934250816501</v>
       </c>
       <c r="C18" t="n">
-        <v>2460.481221535375</v>
+        <v>2460.481221535374</v>
       </c>
       <c r="D18" t="n">
-        <v>2311.546811874124</v>
+        <v>2311.546811874123</v>
       </c>
       <c r="E18" t="n">
-        <v>2152.309356868668</v>
+        <v>2152.309356868667</v>
       </c>
       <c r="F18" t="n">
-        <v>2005.774798895553</v>
+        <v>2005.774798895552</v>
       </c>
       <c r="G18" t="n">
-        <v>1869.820993208504</v>
+        <v>1869.820993208503</v>
       </c>
       <c r="H18" t="n">
         <v>1783.272021853795</v>
       </c>
       <c r="I18" t="n">
-        <v>1778.35666740714</v>
+        <v>1778.356667407139</v>
       </c>
       <c r="J18" t="n">
-        <v>1909.93376941561</v>
+        <v>1909.933769415609</v>
       </c>
       <c r="K18" t="n">
-        <v>1909.93376941561</v>
+        <v>2212.974818765473</v>
       </c>
       <c r="L18" t="n">
-        <v>1995.127205676915</v>
+        <v>2666.773448359801</v>
       </c>
       <c r="M18" t="n">
-        <v>2544.045670287204</v>
+        <v>2666.773448359801</v>
       </c>
       <c r="N18" t="n">
-        <v>3121.901018213606</v>
+        <v>3146.665996244125</v>
       </c>
       <c r="O18" t="n">
-        <v>3628.305973161856</v>
+        <v>3653.070951192376</v>
       </c>
       <c r="P18" t="n">
-        <v>4015.407528714012</v>
+        <v>4040.172506744531</v>
       </c>
       <c r="Q18" t="n">
-        <v>4224.255470725292</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="R18" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S18" t="n">
-        <v>4127.18502770635</v>
+        <v>4127.185027706349</v>
       </c>
       <c r="T18" t="n">
-        <v>3936.191771364142</v>
+        <v>3936.191771364141</v>
       </c>
       <c r="U18" t="n">
-        <v>3708.150851767001</v>
+        <v>3708.150851767</v>
       </c>
       <c r="V18" t="n">
-        <v>3472.998743535258</v>
+        <v>3472.998743535257</v>
       </c>
       <c r="W18" t="n">
-        <v>3218.761386807057</v>
+        <v>3218.761386807056</v>
       </c>
       <c r="X18" t="n">
-        <v>3010.909886601524</v>
+        <v>3010.909886601523</v>
       </c>
       <c r="Y18" t="n">
-        <v>2803.14958783657</v>
+        <v>2803.149587836569</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>2592.361440908815</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>2455.354755306377</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>2337.16761321951</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>2221.184016962585</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>2106.223566790144</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>1970.793366233549</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>1859.556492148398</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>1804.479430133722</v>
       </c>
       <c r="J19" t="n">
-        <v>185.174278704278</v>
+        <v>1904.673299862884</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443607</v>
+        <v>2179.027723202967</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902782</v>
+        <v>2576.881788848884</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>3005.051100199499</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>3429.218222513579</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>3807.377851472541</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>4111.954652187294</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>4206.548254511149</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>4052.771840124802</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>3864.400860286275</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>3607.246207396106</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>3384.491216515688</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>3127.003543804196</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>2930.943490231648</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>2742.080408413586</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511612</v>
       </c>
       <c r="I20" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,7 +5762,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2634.934250816501</v>
+        <v>941.5579923844783</v>
       </c>
       <c r="C21" t="n">
-        <v>2460.481221535374</v>
+        <v>767.1049631033513</v>
       </c>
       <c r="D21" t="n">
-        <v>2311.546811874123</v>
+        <v>618.1705534421001</v>
       </c>
       <c r="E21" t="n">
-        <v>2152.309356868667</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F21" t="n">
-        <v>2005.774798895552</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G21" t="n">
-        <v>1869.820993208503</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>1783.272021853795</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I21" t="n">
-        <v>1778.356667407139</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>1909.933769415609</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>2212.974818765473</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>2501.532160625164</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>3050.450625235453</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N21" t="n">
-        <v>3628.305973161855</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O21" t="n">
-        <v>3628.305973161855</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P21" t="n">
-        <v>4015.407528714011</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q21" t="n">
-        <v>4224.255470725291</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
-        <v>4249.020448755811</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="S21" t="n">
-        <v>4127.185027706349</v>
+        <v>2433.808769274326</v>
       </c>
       <c r="T21" t="n">
-        <v>3936.191771364141</v>
+        <v>2242.815512932119</v>
       </c>
       <c r="U21" t="n">
-        <v>3708.150851767</v>
+        <v>2014.774593334977</v>
       </c>
       <c r="V21" t="n">
-        <v>3472.998743535257</v>
+        <v>1779.622485103235</v>
       </c>
       <c r="W21" t="n">
-        <v>3218.761386807056</v>
+        <v>1525.385128375033</v>
       </c>
       <c r="X21" t="n">
-        <v>3010.909886601523</v>
+        <v>1317.5336281695</v>
       </c>
       <c r="Y21" t="n">
-        <v>2803.149587836569</v>
+        <v>1109.773329404546</v>
       </c>
     </row>
     <row r="22">
@@ -5908,10 +5908,10 @@
         <v>1804.479430133722</v>
       </c>
       <c r="J22" t="n">
-        <v>1904.673299862885</v>
+        <v>1904.673299862884</v>
       </c>
       <c r="K22" t="n">
-        <v>2179.027723202968</v>
+        <v>2179.027723202967</v>
       </c>
       <c r="L22" t="n">
         <v>2576.881788848885</v>
@@ -6014,7 +6014,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283565</v>
@@ -6066,28 +6066,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>1087.697503179733</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N24" t="n">
-        <v>1665.552851106135</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O24" t="n">
-        <v>2143.777656741112</v>
+        <v>2057.65749280243</v>
       </c>
       <c r="P24" t="n">
-        <v>2530.879212293268</v>
+        <v>2444.759048354586</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2592.361440908817</v>
+        <v>2592.361440908815</v>
       </c>
       <c r="C25" t="n">
-        <v>2455.354755306379</v>
+        <v>2455.354755306377</v>
       </c>
       <c r="D25" t="n">
-        <v>2337.167613219512</v>
+        <v>2337.16761321951</v>
       </c>
       <c r="E25" t="n">
-        <v>2221.184016962587</v>
+        <v>2221.184016962585</v>
       </c>
       <c r="F25" t="n">
-        <v>2106.223566790145</v>
+        <v>2106.223566790144</v>
       </c>
       <c r="G25" t="n">
-        <v>1970.793366233551</v>
+        <v>1970.793366233549</v>
       </c>
       <c r="H25" t="n">
-        <v>1859.5564921484</v>
+        <v>1859.556492148398</v>
       </c>
       <c r="I25" t="n">
-        <v>1804.479430133723</v>
+        <v>1804.479430133722</v>
       </c>
       <c r="J25" t="n">
         <v>1904.673299862884</v>
@@ -6178,19 +6178,19 @@
         <v>3864.400860286275</v>
       </c>
       <c r="U25" t="n">
-        <v>3607.246207396108</v>
+        <v>3607.246207396106</v>
       </c>
       <c r="V25" t="n">
-        <v>3384.49121651569</v>
+        <v>3384.491216515688</v>
       </c>
       <c r="W25" t="n">
-        <v>3127.003543804198</v>
+        <v>3127.003543804196</v>
       </c>
       <c r="X25" t="n">
-        <v>2930.943490231649</v>
+        <v>2930.943490231648</v>
       </c>
       <c r="Y25" t="n">
-        <v>2742.080408413588</v>
+        <v>2742.080408413586</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1221.906516046861</v>
       </c>
       <c r="F26" t="n">
-        <v>810.9206112572538</v>
+        <v>810.9206112572537</v>
       </c>
       <c r="G26" t="n">
         <v>396.6131300684015</v>
@@ -6224,25 +6224,25 @@
         <v>94.35833540878042</v>
       </c>
       <c r="J26" t="n">
-        <v>346.8712280413479</v>
+        <v>429.3974438407749</v>
       </c>
       <c r="K26" t="n">
-        <v>1025.387669625049</v>
+        <v>858.5873309282363</v>
       </c>
       <c r="L26" t="n">
-        <v>1594.737437980868</v>
+        <v>1427.937099284055</v>
       </c>
       <c r="M26" t="n">
-        <v>2259.918194676643</v>
+        <v>2093.11785597983</v>
       </c>
       <c r="N26" t="n">
-        <v>2940.476079819659</v>
+        <v>2773.675741122847</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.772331163192</v>
+        <v>3779.964171916497</v>
       </c>
       <c r="P26" t="n">
-        <v>4072.361121542608</v>
+        <v>4282.552962295913</v>
       </c>
       <c r="Q26" t="n">
         <v>4611.803466450438</v>
@@ -6303,28 +6303,28 @@
         <v>2247.252989090349</v>
       </c>
       <c r="J27" t="n">
-        <v>2378.830091098819</v>
+        <v>2247.252989090349</v>
       </c>
       <c r="K27" t="n">
-        <v>2681.871140448683</v>
+        <v>2247.252989090349</v>
       </c>
       <c r="L27" t="n">
-        <v>2681.871140448683</v>
+        <v>2672.871469371403</v>
       </c>
       <c r="M27" t="n">
-        <v>3230.789605058972</v>
+        <v>3221.789933981692</v>
       </c>
       <c r="N27" t="n">
-        <v>3808.644952985374</v>
+        <v>3799.645281908095</v>
       </c>
       <c r="O27" t="n">
-        <v>4315.049907933624</v>
+        <v>4306.050236856345</v>
       </c>
       <c r="P27" t="n">
-        <v>4509.068828427741</v>
+        <v>4693.151792408501</v>
       </c>
       <c r="Q27" t="n">
-        <v>4717.916770439021</v>
+        <v>4693.151792408501</v>
       </c>
       <c r="R27" t="n">
         <v>4717.916770439021</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>647.307664587079</v>
+        <v>795.2207581694721</v>
       </c>
       <c r="C28" t="n">
-        <v>478.3714816591721</v>
+        <v>626.2845752415652</v>
       </c>
       <c r="D28" t="n">
-        <v>328.2548422468363</v>
+        <v>476.1679358292295</v>
       </c>
       <c r="E28" t="n">
         <v>328.2548422468363</v>
@@ -6406,28 +6406,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R28" t="n">
-        <v>2214.144859831204</v>
+        <v>2288.546551401335</v>
       </c>
       <c r="S28" t="n">
-        <v>2028.438948119389</v>
+        <v>2102.84063968952</v>
       </c>
       <c r="T28" t="n">
-        <v>1808.138470955393</v>
+        <v>1969.419991462782</v>
       </c>
       <c r="U28" t="n">
-        <v>1519.054320739758</v>
+        <v>1680.335841247146</v>
       </c>
       <c r="V28" t="n">
-        <v>1264.369832533871</v>
+        <v>1425.651353041259</v>
       </c>
       <c r="W28" t="n">
-        <v>1264.369832533871</v>
+        <v>1425.651353041259</v>
       </c>
       <c r="X28" t="n">
-        <v>1036.380281635853</v>
+        <v>1197.661802143242</v>
       </c>
       <c r="Y28" t="n">
-        <v>828.9561294173187</v>
+        <v>976.8692229997118</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2290.769118456618</v>
+        <v>2290.769118456617</v>
       </c>
       <c r="C29" t="n">
-        <v>1927.850007720248</v>
+        <v>1927.850007720247</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.627715317539</v>
+        <v>1575.627715317538</v>
       </c>
       <c r="E29" t="n">
         <v>1195.882868923336</v>
       </c>
       <c r="F29" t="n">
-        <v>790.9403703377699</v>
+        <v>790.9403703377695</v>
       </c>
       <c r="G29" t="n">
-        <v>382.676295352959</v>
+        <v>382.6762953529587</v>
       </c>
       <c r="H29" t="n">
-        <v>98.97033959036425</v>
+        <v>98.97033959036412</v>
       </c>
       <c r="I29" t="n">
-        <v>92.50831310142081</v>
+        <v>92.5083131014208</v>
       </c>
       <c r="J29" t="n">
-        <v>345.0212057339883</v>
+        <v>345.0212057339882</v>
       </c>
       <c r="K29" t="n">
-        <v>1095.115051266903</v>
+        <v>774.2110928214495</v>
       </c>
       <c r="L29" t="n">
-        <v>1712.428163366192</v>
+        <v>1343.560861177268</v>
       </c>
       <c r="M29" t="n">
-        <v>2377.608920061967</v>
+        <v>2008.741617873043</v>
       </c>
       <c r="N29" t="n">
         <v>3058.166805204984</v>
@@ -6482,31 +6482,31 @@
         <v>4190.051846927932</v>
       </c>
       <c r="Q29" t="n">
-        <v>4519.302351082457</v>
+        <v>4519.302351082456</v>
       </c>
       <c r="R29" t="n">
         <v>4625.41565507104</v>
       </c>
       <c r="S29" t="n">
-        <v>4538.600123118349</v>
+        <v>4538.600123118348</v>
       </c>
       <c r="T29" t="n">
-        <v>4342.014433355939</v>
+        <v>4342.014433355938</v>
       </c>
       <c r="U29" t="n">
-        <v>4094.588560351111</v>
+        <v>4094.588560351108</v>
       </c>
       <c r="V29" t="n">
-        <v>3769.569079211581</v>
+        <v>3769.569079211579</v>
       </c>
       <c r="W29" t="n">
-        <v>3422.843830145508</v>
+        <v>3422.843830145506</v>
       </c>
       <c r="X29" t="n">
-        <v>3055.421478088469</v>
+        <v>3055.421478088468</v>
       </c>
       <c r="Y29" t="n">
-        <v>2671.325552316699</v>
+        <v>2671.325552316698</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3011.32945713173</v>
+        <v>949.0858965107828</v>
       </c>
       <c r="C30" t="n">
-        <v>2836.876427850603</v>
+        <v>774.6328672296559</v>
       </c>
       <c r="D30" t="n">
-        <v>2687.942018189352</v>
+        <v>625.6984575684046</v>
       </c>
       <c r="E30" t="n">
-        <v>2528.704563183896</v>
+        <v>466.461002562949</v>
       </c>
       <c r="F30" t="n">
-        <v>2382.170005210781</v>
+        <v>319.926444589834</v>
       </c>
       <c r="G30" t="n">
-        <v>2246.216199523732</v>
+        <v>183.9726389027849</v>
       </c>
       <c r="H30" t="n">
-        <v>2159.667228169023</v>
+        <v>97.42366754807634</v>
       </c>
       <c r="I30" t="n">
-        <v>2154.751873722368</v>
+        <v>92.5083131014208</v>
       </c>
       <c r="J30" t="n">
-        <v>2286.328975730838</v>
+        <v>92.5083131014208</v>
       </c>
       <c r="K30" t="n">
-        <v>2589.370025080702</v>
+        <v>92.5083131014208</v>
       </c>
       <c r="L30" t="n">
-        <v>2589.370025080702</v>
+        <v>546.3069426957483</v>
       </c>
       <c r="M30" t="n">
-        <v>3138.288489690991</v>
+        <v>1095.225407306037</v>
       </c>
       <c r="N30" t="n">
-        <v>3707.144166540114</v>
+        <v>1673.08075523244</v>
       </c>
       <c r="O30" t="n">
-        <v>4213.549121488364</v>
+        <v>2179.48571018069</v>
       </c>
       <c r="P30" t="n">
-        <v>4600.65067704052</v>
+        <v>2563.172094450093</v>
       </c>
       <c r="Q30" t="n">
-        <v>4600.65067704052</v>
+        <v>2563.172094450093</v>
       </c>
       <c r="R30" t="n">
-        <v>4625.41565507104</v>
+        <v>2563.172094450093</v>
       </c>
       <c r="S30" t="n">
-        <v>4503.580234021578</v>
+        <v>2441.33667340063</v>
       </c>
       <c r="T30" t="n">
-        <v>4312.586977679371</v>
+        <v>2250.343417058423</v>
       </c>
       <c r="U30" t="n">
-        <v>4084.546058082229</v>
+        <v>2022.302497461282</v>
       </c>
       <c r="V30" t="n">
-        <v>3849.393949850486</v>
+        <v>1787.150389229539</v>
       </c>
       <c r="W30" t="n">
-        <v>3595.156593122285</v>
+        <v>1532.913032501338</v>
       </c>
       <c r="X30" t="n">
-        <v>3387.305092916752</v>
+        <v>1325.061532295805</v>
       </c>
       <c r="Y30" t="n">
-        <v>3179.544794151798</v>
+        <v>1117.301233530851</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3352.926948338923</v>
+        <v>838.7601212120492</v>
       </c>
       <c r="C31" t="n">
-        <v>3190.034171615058</v>
+        <v>675.8673444881837</v>
       </c>
       <c r="D31" t="n">
-        <v>3045.960938406763</v>
+        <v>531.7941112798894</v>
       </c>
       <c r="E31" t="n">
-        <v>2904.091251028412</v>
+        <v>531.7941112798894</v>
       </c>
       <c r="F31" t="n">
-        <v>2763.244709734543</v>
+        <v>390.9475699860205</v>
       </c>
       <c r="G31" t="n">
-        <v>2601.928418056521</v>
+        <v>229.6312783079992</v>
       </c>
       <c r="H31" t="n">
-        <v>2464.805452849942</v>
+        <v>92.5083131014208</v>
       </c>
       <c r="I31" t="n">
-        <v>2383.842299713838</v>
+        <v>92.5083131014208</v>
       </c>
       <c r="J31" t="n">
-        <v>2458.66521153489</v>
+        <v>167.3312249224723</v>
       </c>
       <c r="K31" t="n">
-        <v>2707.648676966862</v>
+        <v>416.3146903544443</v>
       </c>
       <c r="L31" t="n">
-        <v>3080.131784704668</v>
+        <v>788.7977980922511</v>
       </c>
       <c r="M31" t="n">
-        <v>3482.930138147172</v>
+        <v>1191.596151534755</v>
       </c>
       <c r="N31" t="n">
-        <v>3881.726302553141</v>
+        <v>1590.392315940724</v>
       </c>
       <c r="O31" t="n">
-        <v>4234.514973603993</v>
+        <v>1943.180986991576</v>
       </c>
       <c r="P31" t="n">
-        <v>4513.720816410635</v>
+        <v>2222.386829798218</v>
       </c>
       <c r="Q31" t="n">
-        <v>4625.41565507104</v>
+        <v>2334.081668458624</v>
       </c>
       <c r="R31" t="n">
-        <v>4625.41565507104</v>
+        <v>2265.723383092534</v>
       </c>
       <c r="S31" t="n">
-        <v>4445.753149563267</v>
+        <v>2086.06087758476</v>
       </c>
       <c r="T31" t="n">
-        <v>4231.496078603312</v>
+        <v>1871.803806624806</v>
       </c>
       <c r="U31" t="n">
-        <v>4231.496078603312</v>
+        <v>1871.803806624806</v>
       </c>
       <c r="V31" t="n">
-        <v>4072.996029805307</v>
+        <v>1623.16272462296</v>
       </c>
       <c r="W31" t="n">
-        <v>3789.622265972388</v>
+        <v>1339.788960790041</v>
       </c>
       <c r="X31" t="n">
-        <v>3567.676121278412</v>
+        <v>1229.114352777736</v>
       </c>
       <c r="Y31" t="n">
-        <v>3352.926948338923</v>
+        <v>1014.365179838247</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
         <v>766.683188695145</v>
@@ -6719,16 +6719,16 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400162</v>
@@ -6771,31 +6771,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334505</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277778</v>
+        <v>670.3561405779134</v>
       </c>
       <c r="M33" t="n">
-        <v>1059.51735386646</v>
+        <v>1219.274605188202</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.372701792862</v>
+        <v>1797.129953114605</v>
       </c>
       <c r="O33" t="n">
-        <v>2143.777656741112</v>
+        <v>2303.534908062855</v>
       </c>
       <c r="P33" t="n">
-        <v>2530.879212293268</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q33" t="n">
         <v>2530.879212293268</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2592.361440908816</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C34" t="n">
-        <v>2455.354755306378</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D34" t="n">
-        <v>2337.167613219511</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E34" t="n">
-        <v>2221.184016962586</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F34" t="n">
-        <v>2106.223566790145</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G34" t="n">
-        <v>1970.79336623355</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H34" t="n">
-        <v>1859.556492148399</v>
+        <v>140.0574709897934</v>
       </c>
       <c r="I34" t="n">
-        <v>1804.479430133722</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>1904.673299862885</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>2179.027723202968</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>2576.881788848885</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
-        <v>3005.0511001995</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>3429.21822251358</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>3807.377851472542</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>4111.954652187295</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>4249.020448755812</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>4206.54825451115</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>4052.771840124803</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>3864.400860286276</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>3607.246207396109</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>3384.491216515689</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>3127.003543804197</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>2930.943490231648</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>2742.080408413587</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6965,16 +6965,16 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
         <v>2834.342818501803</v>
@@ -7014,25 +7014,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694437</v>
+        <v>670.3561405779135</v>
       </c>
       <c r="M36" t="n">
-        <v>1087.697503179733</v>
+        <v>1219.274605188203</v>
       </c>
       <c r="N36" t="n">
-        <v>1665.552851106135</v>
+        <v>1797.129953114605</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
         <v>2555.644190323788</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
@@ -7105,13 +7105,13 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7123,19 +7123,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7160,7 +7160,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
@@ -7178,13 +7178,13 @@
         <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
@@ -7208,13 +7208,13 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
         <v>2476.13298385146</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2634.934250816502</v>
+        <v>941.5579923844783</v>
       </c>
       <c r="C39" t="n">
-        <v>2460.481221535375</v>
+        <v>767.1049631033513</v>
       </c>
       <c r="D39" t="n">
-        <v>2311.546811874124</v>
+        <v>618.1705534421001</v>
       </c>
       <c r="E39" t="n">
-        <v>2152.309356868668</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F39" t="n">
-        <v>2005.774798895553</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G39" t="n">
-        <v>1869.820993208504</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>1783.272021853795</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>1778.35666740714</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>1909.93376941561</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>1928.430131634743</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>2382.228761229071</v>
+        <v>688.8525027970467</v>
       </c>
       <c r="M39" t="n">
-        <v>2931.14722583936</v>
+        <v>1237.770967407336</v>
       </c>
       <c r="N39" t="n">
-        <v>3509.002573765762</v>
+        <v>1815.626315333738</v>
       </c>
       <c r="O39" t="n">
-        <v>4015.407528714012</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="P39" t="n">
-        <v>4015.407528714012</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q39" t="n">
-        <v>4224.255470725292</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R39" t="n">
-        <v>4249.020448755812</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="S39" t="n">
-        <v>4127.18502770635</v>
+        <v>2433.808769274326</v>
       </c>
       <c r="T39" t="n">
-        <v>3936.191771364142</v>
+        <v>2242.815512932119</v>
       </c>
       <c r="U39" t="n">
-        <v>3708.150851767001</v>
+        <v>2014.774593334977</v>
       </c>
       <c r="V39" t="n">
-        <v>3472.998743535258</v>
+        <v>1779.622485103235</v>
       </c>
       <c r="W39" t="n">
-        <v>3218.761386807057</v>
+        <v>1525.385128375033</v>
       </c>
       <c r="X39" t="n">
-        <v>3010.909886601524</v>
+        <v>1317.5336281695</v>
       </c>
       <c r="Y39" t="n">
-        <v>2803.14958783657</v>
+        <v>1109.773329404546</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2592.361440908818</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>2455.35475530638</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>2337.167613219513</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E40" t="n">
-        <v>2221.184016962588</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
-        <v>2106.223566790146</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>1970.793366233552</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>1859.556492148401</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>1804.479430133724</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>1904.673299862887</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>2179.027723202969</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>2576.881788848887</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
-        <v>3005.051100199502</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>3429.21822251358</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>3807.377851472542</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>4111.954652187295</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>4249.020448755812</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>4206.54825451115</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>4052.771840124803</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>3864.400860286276</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>3607.246207396109</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>3384.491216515691</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>3127.003543804199</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>2930.94349023165</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>2742.080408413589</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
@@ -7409,10 +7409,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7445,13 +7445,13 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
         <v>2476.13298385146</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2634.934250816502</v>
+        <v>941.5579923844783</v>
       </c>
       <c r="C42" t="n">
-        <v>2460.481221535375</v>
+        <v>767.1049631033513</v>
       </c>
       <c r="D42" t="n">
-        <v>2311.546811874124</v>
+        <v>618.1705534421001</v>
       </c>
       <c r="E42" t="n">
-        <v>2152.309356868668</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F42" t="n">
-        <v>2005.774798895553</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G42" t="n">
-        <v>1869.820993208504</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>1783.272021853795</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>1778.35666740714</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>1778.35666740714</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K42" t="n">
-        <v>2081.397716757004</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L42" t="n">
-        <v>2535.196346351332</v>
+        <v>510.5988892561703</v>
       </c>
       <c r="M42" t="n">
-        <v>3084.114810961621</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N42" t="n">
-        <v>3661.970158888023</v>
+        <v>1637.372701792862</v>
       </c>
       <c r="O42" t="n">
-        <v>4168.375113836273</v>
+        <v>2143.777656741112</v>
       </c>
       <c r="P42" t="n">
-        <v>4249.020448755812</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="Q42" t="n">
-        <v>4249.020448755812</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R42" t="n">
-        <v>4249.020448755812</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="S42" t="n">
-        <v>4127.18502770635</v>
+        <v>2433.808769274326</v>
       </c>
       <c r="T42" t="n">
-        <v>3936.191771364142</v>
+        <v>2242.815512932119</v>
       </c>
       <c r="U42" t="n">
-        <v>3708.150851767001</v>
+        <v>2014.774593334977</v>
       </c>
       <c r="V42" t="n">
-        <v>3472.998743535258</v>
+        <v>1779.622485103235</v>
       </c>
       <c r="W42" t="n">
-        <v>3218.761386807057</v>
+        <v>1525.385128375033</v>
       </c>
       <c r="X42" t="n">
-        <v>3010.909886601524</v>
+        <v>1317.5336281695</v>
       </c>
       <c r="Y42" t="n">
-        <v>2803.14958783657</v>
+        <v>1109.773329404546</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511625</v>
@@ -7570,46 +7570,46 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7646,10 +7646,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7658,7 +7658,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233288</v>
@@ -7676,13 +7676,13 @@
         <v>4182.047601720506</v>
       </c>
       <c r="T44" t="n">
-        <v>4089.912283732061</v>
+        <v>4005.304596875483</v>
       </c>
       <c r="U44" t="n">
-        <v>3862.329095644617</v>
+        <v>3777.721408788038</v>
       </c>
       <c r="V44" t="n">
-        <v>3557.152299422474</v>
+        <v>3472.544612565895</v>
       </c>
       <c r="W44" t="n">
         <v>3230.269735273787</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2634.934250816502</v>
+        <v>941.5579923844783</v>
       </c>
       <c r="C45" t="n">
-        <v>2460.481221535375</v>
+        <v>767.1049631033513</v>
       </c>
       <c r="D45" t="n">
-        <v>2311.546811874124</v>
+        <v>618.1705534421001</v>
       </c>
       <c r="E45" t="n">
-        <v>2152.309356868668</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F45" t="n">
-        <v>2005.774798895553</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G45" t="n">
-        <v>1869.820993208504</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>1783.272021853795</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>1778.35666740714</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J45" t="n">
-        <v>1909.93376941561</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K45" t="n">
-        <v>1909.93376941561</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L45" t="n">
-        <v>2228.740125718715</v>
+        <v>326.5159252754105</v>
       </c>
       <c r="M45" t="n">
-        <v>2777.658590329004</v>
+        <v>875.4343898856998</v>
       </c>
       <c r="N45" t="n">
-        <v>3355.513938255406</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O45" t="n">
-        <v>3861.918893203656</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P45" t="n">
-        <v>4249.020448755812</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q45" t="n">
-        <v>4249.020448755812</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
-        <v>4249.020448755812</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="S45" t="n">
-        <v>4127.18502770635</v>
+        <v>2433.808769274326</v>
       </c>
       <c r="T45" t="n">
-        <v>3936.191771364142</v>
+        <v>2242.815512932119</v>
       </c>
       <c r="U45" t="n">
-        <v>3708.150851767001</v>
+        <v>2014.774593334977</v>
       </c>
       <c r="V45" t="n">
-        <v>3472.998743535258</v>
+        <v>1779.622485103235</v>
       </c>
       <c r="W45" t="n">
-        <v>3218.761386807057</v>
+        <v>1525.385128375033</v>
       </c>
       <c r="X45" t="n">
-        <v>3010.909886601524</v>
+        <v>1317.5336281695</v>
       </c>
       <c r="Y45" t="n">
-        <v>2803.14958783657</v>
+        <v>1109.773329404546</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>794.1624068020164</v>
+        <v>2682.050423701755</v>
       </c>
       <c r="C46" t="n">
-        <v>651.1123149955368</v>
+        <v>2539.000331895275</v>
       </c>
       <c r="D46" t="n">
-        <v>526.8817667046284</v>
+        <v>2414.769783604366</v>
       </c>
       <c r="E46" t="n">
-        <v>404.8547642436625</v>
+        <v>2292.7427811434</v>
       </c>
       <c r="F46" t="n">
-        <v>404.8547642436625</v>
+        <v>2171.738924766917</v>
       </c>
       <c r="G46" t="n">
-        <v>263.3811574830271</v>
+        <v>2030.265318006282</v>
       </c>
       <c r="H46" t="n">
-        <v>146.1008771938345</v>
+        <v>1912.985037717089</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>1851.864569498371</v>
       </c>
       <c r="J46" t="n">
-        <v>179.2511362836976</v>
+        <v>1946.135296806952</v>
       </c>
       <c r="K46" t="n">
-        <v>447.6824172031995</v>
+        <v>2214.566577726453</v>
       </c>
       <c r="L46" t="n">
-        <v>839.6133404285362</v>
+        <v>2606.49750095179</v>
       </c>
       <c r="M46" t="n">
-        <v>1261.85950935857</v>
+        <v>3028.743669881824</v>
       </c>
       <c r="N46" t="n">
-        <v>1680.103489252069</v>
+        <v>3446.987649775323</v>
       </c>
       <c r="O46" t="n">
-        <v>2052.33997579045</v>
+        <v>3819.224136313705</v>
       </c>
       <c r="P46" t="n">
-        <v>2350.993634084622</v>
+        <v>4117.877794607876</v>
       </c>
       <c r="Q46" t="n">
-        <v>2482.136288232558</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="R46" t="n">
-        <v>2433.620687783854</v>
+        <v>4200.504848307109</v>
       </c>
       <c r="S46" t="n">
-        <v>2273.800867193466</v>
+        <v>4040.68502771672</v>
       </c>
       <c r="T46" t="n">
-        <v>2079.386481150897</v>
+        <v>3846.270641674152</v>
       </c>
       <c r="U46" t="n">
-        <v>1816.188422056689</v>
+        <v>3583.072582579944</v>
       </c>
       <c r="V46" t="n">
-        <v>1587.390024972229</v>
+        <v>3354.274185495484</v>
       </c>
       <c r="W46" t="n">
-        <v>1323.858946056696</v>
+        <v>3090.743106579951</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.831268532932</v>
+        <v>3032.71928543267</v>
       </c>
       <c r="Y46" t="n">
-        <v>949.9247805108289</v>
+        <v>2837.812797410567</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>216.7303083825522</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>228.7108053025997</v>
       </c>
       <c r="M2" t="n">
-        <v>220.7868673978199</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>219.453681055507</v>
       </c>
       <c r="O2" t="n">
-        <v>221.538799378194</v>
+        <v>220.9261953972922</v>
       </c>
       <c r="P2" t="n">
         <v>226.149311848474</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>133.8565188748957</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>137.3604083836059</v>
@@ -8070,10 +8070,10 @@
         <v>126.9119083523187</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>139.8355672148734</v>
       </c>
       <c r="P3" t="n">
-        <v>134.7518686851471</v>
+        <v>127.7689411517231</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3661252938572</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.58679307464654</v>
+        <v>77.58679307464658</v>
       </c>
       <c r="K5" t="n">
-        <v>103.3186893556357</v>
+        <v>65.03146198632112</v>
       </c>
       <c r="L5" t="n">
-        <v>81.68999951136321</v>
+        <v>81.6899995113632</v>
       </c>
       <c r="M5" t="n">
-        <v>54.59184344460611</v>
+        <v>54.59184344460612</v>
       </c>
       <c r="N5" t="n">
-        <v>48.64829799319549</v>
+        <v>11.9080293054694</v>
       </c>
       <c r="O5" t="n">
-        <v>24.71437525720879</v>
+        <v>63.00160262652343</v>
       </c>
       <c r="P5" t="n">
-        <v>55.94264331187415</v>
+        <v>55.94264331187424</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.66993533530805</v>
+        <v>127.4102040230342</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>103.505316021015</v>
+        <v>65.21808865170036</v>
       </c>
       <c r="K6" t="n">
-        <v>32.52383389116805</v>
+        <v>32.52383389116808</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>21.10103598206069</v>
       </c>
       <c r="M6" t="n">
-        <v>15.16613334348445</v>
+        <v>15.16613334348443</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.53194745397387</v>
+        <v>9.430911471913262</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.72774528570673</v>
+        <v>95.01497265502135</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>103.7733225025962</v>
+        <v>65.48609513328157</v>
       </c>
       <c r="L7" t="n">
-        <v>91.87900659959445</v>
+        <v>90.33204791800593</v>
       </c>
       <c r="M7" t="n">
-        <v>91.50104948191439</v>
+        <v>91.50104948191435</v>
       </c>
       <c r="N7" t="n">
-        <v>44.01162150700981</v>
+        <v>82.29884887632443</v>
       </c>
       <c r="O7" t="n">
-        <v>61.17012758304597</v>
+        <v>99.45735495236059</v>
       </c>
       <c r="P7" t="n">
-        <v>108.336396598562</v>
+        <v>71.59612791083583</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8532,7 +8532,7 @@
         <v>6.233205181928398</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>66.78462588923534</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>66.78462588923517</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8611,13 +8611,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>46.25131710763709</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>118.0172116724305</v>
       </c>
       <c r="N10" t="n">
         <v>171.8177168444618</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>83.35981393881525</v>
       </c>
       <c r="K26" t="n">
-        <v>251.8450045416566</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>48.44782196310177</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>372.5932345342669</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>86.01103064788515</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.23474265574546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.8490080399364</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>140.4509905045681</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.15352160474302</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.67470251242878</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>280.2103365714781</v>
+        <v>280.210336571478</v>
       </c>
       <c r="V31" t="n">
-        <v>89.23962287180294</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>110.1588213148539</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>83.76160998801274</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>83.76160998801302</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>119.7938178127182</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>22.84502443029763</v>
+        <v>142.6388422430169</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>642511.5199054623</v>
+        <v>642511.5199054624</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>636416.3070040992</v>
+        <v>636416.3070040991</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="D2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="E2" t="n">
         <v>800515.7256176766</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176762</v>
-      </c>
-      <c r="E2" t="n">
-        <v>800515.7256176752</v>
-      </c>
       <c r="F2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.725617675</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="J2" t="n">
-        <v>782881.1928312919</v>
+        <v>782881.1928312918</v>
       </c>
       <c r="K2" t="n">
-        <v>786218.9417397783</v>
+        <v>786218.9417397786</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176749</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="M2" t="n">
         <v>800515.7256176765</v>
       </c>
       <c r="N2" t="n">
+        <v>800515.7256176755</v>
+      </c>
+      <c r="O2" t="n">
         <v>800515.725617676</v>
       </c>
-      <c r="O2" t="n">
-        <v>800515.7256176758</v>
-      </c>
       <c r="P2" t="n">
-        <v>790677.2381580211</v>
+        <v>790677.2381580212</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38828.0597816594</v>
+        <v>38828.05978165939</v>
       </c>
       <c r="C3" t="n">
-        <v>251693.7889480251</v>
+        <v>251693.788948025</v>
       </c>
       <c r="D3" t="n">
-        <v>311177.4112107215</v>
+        <v>311177.4112107217</v>
       </c>
       <c r="E3" t="n">
-        <v>820929.7863246463</v>
+        <v>820929.7863246466</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>34638.01015810243</v>
       </c>
       <c r="K3" t="n">
-        <v>4786.377713600747</v>
+        <v>4786.377713600816</v>
       </c>
       <c r="L3" t="n">
-        <v>47689.30511874297</v>
+        <v>47689.30511874285</v>
       </c>
       <c r="M3" t="n">
-        <v>204957.1230692802</v>
+        <v>204957.1230692803</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>406355.0313049054</v>
+        <v>405703.6705393202</v>
       </c>
       <c r="C4" t="n">
-        <v>345005.8896636321</v>
+        <v>344770.1082325486</v>
       </c>
       <c r="D4" t="n">
-        <v>255283.0848819339</v>
+        <v>255177.1421685144</v>
       </c>
       <c r="E4" t="n">
-        <v>39816.72866046483</v>
+        <v>39739.87518598539</v>
       </c>
       <c r="F4" t="n">
-        <v>39816.72866046483</v>
+        <v>39739.87518598536</v>
       </c>
       <c r="G4" t="n">
-        <v>39816.72866046483</v>
+        <v>39739.87518598542</v>
       </c>
       <c r="H4" t="n">
-        <v>39816.72866046483</v>
+        <v>39739.87518598539</v>
       </c>
       <c r="I4" t="n">
-        <v>39816.72866046484</v>
+        <v>39739.87518598545</v>
       </c>
       <c r="J4" t="n">
-        <v>20926.46764474907</v>
+        <v>20733.22988305682</v>
       </c>
       <c r="K4" t="n">
-        <v>24569.80977914598</v>
+        <v>24399.53162681879</v>
       </c>
       <c r="L4" t="n">
-        <v>39816.72866046485</v>
+        <v>39739.87518598541</v>
       </c>
       <c r="M4" t="n">
-        <v>39816.72866046485</v>
+        <v>39739.87518598542</v>
       </c>
       <c r="N4" t="n">
-        <v>39816.72866046483</v>
+        <v>39739.87518598539</v>
       </c>
       <c r="O4" t="n">
-        <v>39816.72866046483</v>
+        <v>39739.87518598539</v>
       </c>
       <c r="P4" t="n">
-        <v>34042.48647462699</v>
+        <v>33965.63300014748</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>35312.90995413795</v>
       </c>
       <c r="C5" t="n">
-        <v>42565.66854196828</v>
+        <v>42565.66854196826</v>
       </c>
       <c r="D5" t="n">
-        <v>61145.70223437331</v>
+        <v>61145.70223437332</v>
       </c>
       <c r="E5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="F5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="G5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="F5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="G5" t="n">
-        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
         <v>95106.43410215528</v>
@@ -26497,7 +26497,7 @@
         <v>98673.18562160437</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
         <v>95106.4341021553</v>
@@ -26506,7 +26506,7 @@
         <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="P5" t="n">
         <v>94603.45161714942</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>320019.7245769737</v>
+        <v>320671.0853425589</v>
       </c>
       <c r="C6" t="n">
-        <v>161250.3784640511</v>
+        <v>161486.1598951346</v>
       </c>
       <c r="D6" t="n">
-        <v>172909.5272906474</v>
+        <v>173015.4700040671</v>
       </c>
       <c r="E6" t="n">
-        <v>-155337.2234695912</v>
+        <v>-155260.3699951106</v>
       </c>
       <c r="F6" t="n">
-        <v>665592.5628550558</v>
+        <v>665669.4163295357</v>
       </c>
       <c r="G6" t="n">
-        <v>665592.5628550549</v>
+        <v>665669.4163295344</v>
       </c>
       <c r="H6" t="n">
-        <v>665592.562855056</v>
+        <v>665669.4163295357</v>
       </c>
       <c r="I6" t="n">
-        <v>665592.5628550556</v>
+        <v>665669.4163295344</v>
       </c>
       <c r="J6" t="n">
-        <v>627740.4949382487</v>
+        <v>627933.7326999408</v>
       </c>
       <c r="K6" t="n">
-        <v>658189.5686254272</v>
+        <v>658359.8467777546</v>
       </c>
       <c r="L6" t="n">
-        <v>617903.2577363118</v>
+        <v>617980.1112107928</v>
       </c>
       <c r="M6" t="n">
-        <v>460635.4397857762</v>
+        <v>460712.2932602555</v>
       </c>
       <c r="N6" t="n">
-        <v>665592.5628550559</v>
+        <v>665669.4163295348</v>
       </c>
       <c r="O6" t="n">
-        <v>665592.5628550557</v>
+        <v>665669.4163295354</v>
       </c>
       <c r="P6" t="n">
-        <v>662031.3000662448</v>
+        <v>662108.1535407243</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G2" t="n">
         <v>31.61020235221394</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P2" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>303.2204182529331</v>
+        <v>303.220418252933</v>
       </c>
       <c r="D3" t="n">
         <v>593.476100338065</v>
@@ -26790,7 +26790,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="C4" t="n">
-        <v>38.28722736931466</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="D4" t="n">
         <v>239.807948141505</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.982972142000934</v>
+        <v>5.98297214200102</v>
       </c>
       <c r="L2" t="n">
-        <v>25.62723021021301</v>
+        <v>25.62723021021291</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>268.1991575338078</v>
+        <v>268.1991575338077</v>
       </c>
       <c r="D3" t="n">
-        <v>290.2556820851318</v>
+        <v>290.2556820851319</v>
       </c>
       <c r="E3" t="n">
-        <v>684.683770282058</v>
+        <v>684.6837702820583</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>15.16194852731947</v>
       </c>
       <c r="C4" t="n">
-        <v>23.1252788419952</v>
+        <v>23.12527884199512</v>
       </c>
       <c r="D4" t="n">
-        <v>201.5207207721903</v>
+        <v>201.5207207721904</v>
       </c>
       <c r="E4" t="n">
-        <v>822.4471640474478</v>
+        <v>822.447164047448</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>107.4219191933832</v>
+        <v>107.4219191933831</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474478</v>
+        <v>822.4471640474483</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.982972142000934</v>
+        <v>5.98297214200102</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>15.16194852731947</v>
       </c>
       <c r="K4" t="n">
-        <v>23.1252788419952</v>
+        <v>23.12527884199512</v>
       </c>
       <c r="L4" t="n">
-        <v>201.5207207721903</v>
+        <v>201.5207207721904</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474478</v>
+        <v>822.447164047448</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>322.8709983669814</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>189.8861735903263</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>236.1724412614918</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>354.5691521511496</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>132.2831170373193</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>142.4831319280815</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27506,16 +27506,16 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>155.1220240940137</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>184.6991524448524</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>219.4459428865623</v>
+        <v>217.6386386221058</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5207472499849</v>
+        <v>192.3280515144414</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.6700316546178</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27585,7 +27585,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>207.7540633326271</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27597,10 +27597,10 @@
         <v>238.782999060965</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>271.3610498092715</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>210.5477068617177</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>73.297581868463</v>
+        <v>73.29758186846303</v>
       </c>
       <c r="S5" t="n">
         <v>181.2426413211651</v>
@@ -27670,19 +27670,19 @@
         <v>217.7597796911576</v>
       </c>
       <c r="U5" t="n">
-        <v>238.4845516175367</v>
+        <v>212.9609074140587</v>
       </c>
       <c r="V5" t="n">
-        <v>289.4650311008202</v>
+        <v>289.4650311008203</v>
       </c>
       <c r="W5" t="n">
-        <v>310.9537413480983</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>356.9675175126325</v>
       </c>
       <c r="Y5" t="n">
-        <v>347.9507112867389</v>
+        <v>347.950711286739</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>134.4212716190011</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>113.7216756977465</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>102.9679173400761</v>
+        <v>136.6913072069685</v>
       </c>
       <c r="H6" t="n">
         <v>105.9364691327893</v>
       </c>
       <c r="I6" t="n">
-        <v>66.94115848079691</v>
+        <v>66.94115848079693</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.37637809664429</v>
+        <v>59.66360546595897</v>
       </c>
       <c r="S6" t="n">
-        <v>159.5686572236381</v>
+        <v>121.2814298543235</v>
       </c>
       <c r="T6" t="n">
-        <v>159.2486375106537</v>
+        <v>197.5358648799684</v>
       </c>
       <c r="U6" t="n">
         <v>225.898473531222</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>213.4077557916049</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>167.4857578341629</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>128.9595937293132</v>
       </c>
       <c r="D7" t="n">
-        <v>110.3282456488977</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>108.1467352772546</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>129.1569610709831</v>
+        <v>167.4441884402977</v>
       </c>
       <c r="H7" t="n">
         <v>157.3657041623352</v>
@@ -27795,7 +27795,7 @@
         <v>139.0069807701976</v>
       </c>
       <c r="J7" t="n">
-        <v>54.70106220268817</v>
+        <v>54.70106220268818</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08853272618682</v>
+        <v>40.3757600955015</v>
       </c>
       <c r="R7" t="n">
-        <v>118.9842934991459</v>
+        <v>152.7076833660382</v>
       </c>
       <c r="S7" t="n">
         <v>214.4875235813842</v>
@@ -27828,10 +27828,10 @@
         <v>225.6093009597753</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2892043973185</v>
+        <v>252.5658145304262</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>213.8504159545134</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>167.0680976002065</v>
+        <v>336.0669110662118</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032862988</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>129.9231525369641</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>306.4280427728432</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27938,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>115.9793510456951</v>
       </c>
       <c r="F9" t="n">
-        <v>2.565427359151101</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
         <v>99.90681807664345</v>
@@ -27980,7 +27980,7 @@
         <v>20.90078060183511</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
         <v>195.0194028815133</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941458</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>30.1287610048397</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>12.32969518232298</v>
       </c>
       <c r="W10" t="n">
-        <v>46.71505019508604</v>
+        <v>46.71505019508598</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.74549418118292</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221426</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L16" t="n">
-        <v>31.61020235221343</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221339</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
         <v>31.61020235221394</v>
@@ -28819,7 +28819,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221484</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
         <v>31.61020235221394</v>
@@ -29104,7 +29104,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221446</v>
       </c>
     </row>
     <row r="24">
@@ -29217,7 +29217,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221216</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
         <v>31.61020235221394</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="C29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="D29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="E29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="F29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="G29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="H29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="I29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="T29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="U29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="V29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="W29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="X29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="C31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="D31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="E31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="F31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="G31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="H31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="I31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="J31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="K31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="L31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="M31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="N31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="O31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="P31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="R31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="S31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="T31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="U31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="V31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="W31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="X31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.982972142000934</v>
+        <v>5.982972142001056</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221315</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221196</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221335</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="C44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="D44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="E44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="F44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="G44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="H44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="T44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="U44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="V44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="W44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="X44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="C46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="D46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="E46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="F46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="G46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="H46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="I46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="J46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="K46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="L46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="M46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="N46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="O46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="P46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="R46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="S46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="T46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="U46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="V46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="W46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="X46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.62723021021301</v>
+        <v>25.6272302102129</v>
       </c>
     </row>
   </sheetData>
@@ -31279,46 +31279,46 @@
         <v>1.218976555790685</v>
       </c>
       <c r="H5" t="n">
-        <v>12.48384365199136</v>
+        <v>12.48384365199135</v>
       </c>
       <c r="I5" t="n">
-        <v>46.99459366712043</v>
+        <v>46.99459366712041</v>
       </c>
       <c r="J5" t="n">
         <v>103.4591114520397</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0583890586595</v>
+        <v>155.0583890586594</v>
       </c>
       <c r="L5" t="n">
-        <v>192.3636428279387</v>
+        <v>192.3636428279386</v>
       </c>
       <c r="M5" t="n">
-        <v>214.0416171519813</v>
+        <v>214.0416171519812</v>
       </c>
       <c r="N5" t="n">
-        <v>217.5050342911216</v>
+        <v>217.5050342911215</v>
       </c>
       <c r="O5" t="n">
         <v>205.3838361644779</v>
       </c>
       <c r="P5" t="n">
-        <v>175.2903524433954</v>
+        <v>175.2903524433953</v>
       </c>
       <c r="Q5" t="n">
         <v>131.6357545391414</v>
       </c>
       <c r="R5" t="n">
-        <v>76.57153607268668</v>
+        <v>76.57153607268665</v>
       </c>
       <c r="S5" t="n">
-        <v>27.77742826508026</v>
+        <v>27.77742826508025</v>
       </c>
       <c r="T5" t="n">
-        <v>5.336069872973726</v>
+        <v>5.336069872973725</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09751812446325479</v>
+        <v>0.09751812446325475</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6522099562421581</v>
+        <v>0.6522099562421578</v>
       </c>
       <c r="H6" t="n">
-        <v>6.29897510370716</v>
+        <v>6.298975103707157</v>
       </c>
       <c r="I6" t="n">
-        <v>22.45547437061817</v>
+        <v>22.45547437061816</v>
       </c>
       <c r="J6" t="n">
-        <v>61.61953801496636</v>
+        <v>61.61953801496634</v>
       </c>
       <c r="K6" t="n">
         <v>105.3176050831909</v>
       </c>
       <c r="L6" t="n">
-        <v>141.6125170340704</v>
+        <v>141.6125170340703</v>
       </c>
       <c r="M6" t="n">
         <v>165.2551279478485</v>
       </c>
       <c r="N6" t="n">
-        <v>169.628939452648</v>
+        <v>169.6289394526479</v>
       </c>
       <c r="O6" t="n">
-        <v>155.1773398959138</v>
+        <v>155.1773398959137</v>
       </c>
       <c r="P6" t="n">
         <v>124.543495942417</v>
       </c>
       <c r="Q6" t="n">
-        <v>83.25402880031479</v>
+        <v>83.25402880031476</v>
       </c>
       <c r="R6" t="n">
-        <v>40.49422868668418</v>
+        <v>40.49422868668417</v>
       </c>
       <c r="S6" t="n">
-        <v>12.11451388019973</v>
+        <v>12.11451388019972</v>
       </c>
       <c r="T6" t="n">
-        <v>2.628863814853259</v>
+        <v>2.628863814853258</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04290854975277358</v>
+        <v>0.04290854975277356</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5467909181610269</v>
+        <v>0.5467909181610268</v>
       </c>
       <c r="H7" t="n">
-        <v>4.861468345104407</v>
+        <v>4.861468345104405</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44349415706071</v>
+        <v>16.4434941570607</v>
       </c>
       <c r="J7" t="n">
-        <v>38.6581179139846</v>
+        <v>38.65811791398459</v>
       </c>
       <c r="K7" t="n">
-        <v>63.52716303725384</v>
+        <v>63.52716303725381</v>
       </c>
       <c r="L7" t="n">
-        <v>81.2928970509585</v>
+        <v>81.29289705095847</v>
       </c>
       <c r="M7" t="n">
-        <v>85.71196183500533</v>
+        <v>85.7119618350053</v>
       </c>
       <c r="N7" t="n">
-        <v>83.67392295822339</v>
+        <v>83.67392295822336</v>
       </c>
       <c r="O7" t="n">
-        <v>77.28641086879682</v>
+        <v>77.28641086879679</v>
       </c>
       <c r="P7" t="n">
-        <v>66.13187613831181</v>
+        <v>66.13187613831178</v>
       </c>
       <c r="Q7" t="n">
-        <v>45.7862831561929</v>
+        <v>45.78628315619289</v>
       </c>
       <c r="R7" t="n">
-        <v>24.58570801113126</v>
+        <v>24.58570801113125</v>
       </c>
       <c r="S7" t="n">
-        <v>9.529074455588075</v>
+        <v>9.529074455588072</v>
       </c>
       <c r="T7" t="n">
-        <v>2.336288468506206</v>
+        <v>2.336288468506205</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02982495917241968</v>
+        <v>0.02982495917241967</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31753,46 +31753,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H11" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I11" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L11" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O11" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R11" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T11" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,37 +31832,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H12" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J12" t="n">
-        <v>190.0206421035406</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K12" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L12" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M12" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P12" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.9392912691327</v>
+        <v>256.2010137373293</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S12" t="n">
         <v>51.06610426486998</v>
@@ -31914,7 +31914,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I13" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J13" t="n">
         <v>162.9549067838147</v>
@@ -31923,13 +31923,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L13" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M13" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O13" t="n">
         <v>325.7840929246177</v>
@@ -31944,10 +31944,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S13" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -31990,46 +31990,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I14" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R14" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,34 +32069,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247271</v>
+        <v>349.2052314929242</v>
       </c>
       <c r="L15" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N15" t="n">
-        <v>427.6151068264354</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R15" t="n">
         <v>170.6946332877214</v>
@@ -32151,7 +32151,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838147</v>
@@ -32160,13 +32160,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O16" t="n">
         <v>325.7840929246177</v>
@@ -32181,10 +32181,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32315,16 +32315,16 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>224.6083558013947</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>616.0816594412372</v>
       </c>
       <c r="O18" t="n">
         <v>654.1164009578284</v>
@@ -32336,7 +32336,7 @@
         <v>350.9392912691327</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486998</v>
@@ -32464,46 +32464,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I20" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R20" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L21" t="n">
-        <v>430.0264422644105</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>616.081659441237</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32625,7 +32625,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838147</v>
@@ -32634,13 +32634,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O22" t="n">
         <v>325.7840929246177</v>
@@ -32655,10 +32655,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32786,31 +32786,31 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>625.6516036716941</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P24" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>251.9869679943067</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486998</v>
@@ -33023,13 +33023,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>568.4720366294241</v>
       </c>
       <c r="M27" t="n">
         <v>696.597129487967</v>
@@ -33041,13 +33041,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P27" t="n">
-        <v>329.9531149841455</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33260,31 +33260,31 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
-        <v>705.9434058703258</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>521.5364117268584</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33500,13 +33500,13 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>229.1240985065456</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
         <v>715.033982716063</v>
@@ -33515,10 +33515,10 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>152.6576015750712</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R33" t="n">
         <v>170.6946332877214</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33749,13 +33749,13 @@
         <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>439.7092158123408</v>
+        <v>517.7605693505327</v>
       </c>
       <c r="P36" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,10 +33974,10 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>156.5246331351001</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155585</v>
+        <v>309.517958025931</v>
       </c>
       <c r="M39" t="n">
         <v>696.597129487967</v>
@@ -34123,46 +34123,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H41" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I41" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R41" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T41" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,37 +34202,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H42" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155585</v>
+        <v>568.4720366294238</v>
       </c>
       <c r="M42" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N42" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P42" t="n">
-        <v>215.4343416764908</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34284,7 +34284,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I43" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J43" t="n">
         <v>162.9549067838147</v>
@@ -34293,13 +34293,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L43" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O43" t="n">
         <v>325.7840929246177</v>
@@ -34314,10 +34314,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34360,46 +34360,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H44" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I44" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R44" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S44" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T44" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,34 +34439,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H45" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>460.5810023082634</v>
+        <v>382.5296487700704</v>
       </c>
       <c r="M45" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34521,7 +34521,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838147</v>
@@ -34530,13 +34530,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O46" t="n">
         <v>325.7840929246177</v>
@@ -34551,10 +34551,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="O2" t="n">
         <v>14.54934454641767</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15.16194852731947</v>
       </c>
       <c r="P2" t="n">
         <v>15.16194852731947</v>
@@ -34778,7 +34778,7 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>8.179020993895534</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>15.16194852731947</v>
@@ -34790,10 +34790,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P3" t="n">
-        <v>15.16194852731947</v>
+        <v>8.179020993895531</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>38.28722736931466</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>38.28722736931466</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="M5" t="n">
-        <v>38.28722736931466</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="N5" t="n">
-        <v>36.74026868772618</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>36.74026868772612</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>38.28722736931466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3.058137254196168</v>
+        <v>24.15917323625681</v>
       </c>
       <c r="M6" t="n">
-        <v>38.28722736931466</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="N6" t="n">
-        <v>38.28722736931466</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="O6" t="n">
-        <v>12.58109545146937</v>
+        <v>12.58109545146931</v>
       </c>
       <c r="P6" t="n">
-        <v>21.10103598206065</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>38.28722736931466</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>38.28722736931466</v>
+        <v>36.74026868772611</v>
       </c>
       <c r="M7" t="n">
-        <v>38.28722736931466</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>38.28722736931459</v>
       </c>
       <c r="P7" t="n">
-        <v>36.74026868772618</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268384</v>
+        <v>135.0753528219192</v>
       </c>
       <c r="L9" t="n">
         <v>138.615755571408</v>
@@ -35267,7 +35267,7 @@
         <v>161.1235481502632</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5721284420623</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>22.9666072747242</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>41.57616651612577</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
         <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>146.8505817925181</v>
       </c>
       <c r="N10" t="n">
         <v>207.9023887233377</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L11" t="n">
         <v>575.1007761169881</v>
@@ -35419,19 +35419,19 @@
         <v>671.899754238157</v>
       </c>
       <c r="N11" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P11" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R11" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>63.18301543687393</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K12" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L12" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P12" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9575171831112</v>
+        <v>116.2192396513078</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K13" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414981</v>
       </c>
       <c r="L13" t="n">
         <v>401.8727935817349</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L14" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440229</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503681</v>
+        <v>211.3637925185652</v>
       </c>
       <c r="L15" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N15" t="n">
-        <v>296.2733947431021</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q15" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L16" t="n">
-        <v>401.8727935817344</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M16" t="n">
         <v>432.4942538895099</v>
@@ -35963,16 +35963,16 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>86.05397602152055</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>484.7399473579039</v>
       </c>
       <c r="O18" t="n">
         <v>511.520156513384</v>
@@ -35984,7 +35984,7 @@
         <v>210.9575171831112</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193553</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
         <v>277.1256801414978</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L20" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.899754238157</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827692</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L21" t="n">
-        <v>291.4720624845363</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>484.7399473579036</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q21" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895099</v>
@@ -36364,10 +36364,10 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.899754238157</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
         <v>635.6527791348811</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>483.0553592272497</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.205929019354</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414978</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>338.4233418504995</v>
       </c>
       <c r="K26" t="n">
-        <v>685.3701430138398</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
@@ -36607,13 +36607,13 @@
         <v>687.4322072151683</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>1016.452960397626</v>
       </c>
       <c r="P26" t="n">
         <v>507.6654448276931</v>
       </c>
       <c r="Q26" t="n">
-        <v>544.8912574826563</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R26" t="n">
         <v>107.1851555440239</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>429.9176568495499</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36689,13 +36689,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P27" t="n">
-        <v>195.9787075698152</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>255.0635279116843</v>
       </c>
       <c r="K29" t="n">
-        <v>757.6705510433479</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L29" t="n">
-        <v>623.5485980800898</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
         <v>671.8997542381571</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>1060.025441749435</v>
       </c>
       <c r="O29" t="n">
         <v>635.6527791348811</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>574.6016937869925</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>387.5620043125282</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>75.57869880914282</v>
+        <v>75.57869880914295</v>
       </c>
       <c r="K31" t="n">
-        <v>251.4984499312848</v>
+        <v>251.4984499312849</v>
       </c>
       <c r="L31" t="n">
-        <v>376.2455633715219</v>
+        <v>376.245563371522</v>
       </c>
       <c r="M31" t="n">
-        <v>406.8670236792968</v>
+        <v>406.867023679297</v>
       </c>
       <c r="N31" t="n">
-        <v>402.8244084908778</v>
+        <v>402.8244084908779</v>
       </c>
       <c r="O31" t="n">
-        <v>356.3521929806583</v>
+        <v>356.3521929806584</v>
       </c>
       <c r="P31" t="n">
-        <v>282.026103845093</v>
+        <v>282.0261038450931</v>
       </c>
       <c r="Q31" t="n">
-        <v>112.8230693539451</v>
+        <v>112.8230693539452</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>507.6654448276931</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R32" t="n">
         <v>107.1851555440239</v>
@@ -37148,13 +37148,13 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>86.9900645845273</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327297</v>
@@ -37163,10 +37163,10 @@
         <v>511.520156513384</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>18.68319416074092</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R33" t="n">
         <v>25.01512932375746</v>
@@ -37318,13 +37318,13 @@
         <v>687.4322072151683</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348821</v>
       </c>
       <c r="P35" t="n">
         <v>507.6654448276931</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R35" t="n">
         <v>107.1851555440239</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,13 +37397,13 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>297.1129713678964</v>
+        <v>375.1643249060883</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908705</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37546,7 +37546,7 @@
         <v>433.5251384721832</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169889</v>
       </c>
       <c r="M38" t="n">
         <v>671.8997542381571</v>
@@ -37561,7 +37561,7 @@
         <v>507.6654448276931</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R38" t="n">
         <v>107.1851555440239</v>
@@ -37622,10 +37622,10 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>18.68319416074116</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356843</v>
+        <v>170.9635782460568</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37710,7 +37710,7 @@
         <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010888</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908713</v>
@@ -37719,7 +37719,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641579</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381571</v>
+        <v>671.899754238157</v>
       </c>
       <c r="N41" t="n">
-        <v>687.432207215169</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356843</v>
+        <v>429.9176568495496</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P42" t="n">
-        <v>81.45993426216059</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414972</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>322.0266225283892</v>
+        <v>243.9752689901962</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>95.2229568773549</v>
+        <v>95.22295687735482</v>
       </c>
       <c r="K46" t="n">
-        <v>271.1427079994968</v>
+        <v>271.1427079994967</v>
       </c>
       <c r="L46" t="n">
-        <v>395.889821439734</v>
+        <v>395.8898214397339</v>
       </c>
       <c r="M46" t="n">
-        <v>426.511281747509</v>
+        <v>426.5112817475089</v>
       </c>
       <c r="N46" t="n">
-        <v>422.4686665590899</v>
+        <v>422.4686665590898</v>
       </c>
       <c r="O46" t="n">
         <v>375.9964510488703</v>
       </c>
       <c r="P46" t="n">
-        <v>301.670361913305</v>
+        <v>301.6703619133049</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.4673274221572</v>
+        <v>132.4673274221571</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
